--- a/Weapon.xlsx
+++ b/Weapon.xlsx
@@ -21,7 +21,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0">
+    <comment ref="G2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +45,101 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0">
+    <comment ref="I2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0：所以子弹同时发射
+100：子弹在100毫秒内发射完毕，发射间隔平均分布</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+-1:以自身为中心平均分布
+0：所有子弹分布于一条直线上
+1~180：以目标为中心的扇形区域</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1：弹道平均分布
+2：弹道随机分布</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+指以目标位置为圆心，半径为配置值的一个范围
+0：以目标位置为落点
+1+：以1为半径的范围</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -76,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="71">
   <si>
     <t>#</t>
   </si>
@@ -90,6 +184,9 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Description</t>
+  </si>
+  <si>
     <t>WeaponType</t>
   </si>
   <si>
@@ -99,6 +196,21 @@
     <t>Taget</t>
   </si>
   <si>
+    <t>BulletNum</t>
+  </si>
+  <si>
+    <t>ShootTime</t>
+  </si>
+  <si>
+    <t>ShootAngle</t>
+  </si>
+  <si>
+    <t>AngleType</t>
+  </si>
+  <si>
+    <t>DropRange</t>
+  </si>
+  <si>
     <t>ShootCd</t>
   </si>
   <si>
@@ -129,6 +241,9 @@
     <t>名字</t>
   </si>
   <si>
+    <t>描述</t>
+  </si>
+  <si>
     <t>武器类型</t>
   </si>
   <si>
@@ -138,6 +253,21 @@
     <t>发射目标</t>
   </si>
   <si>
+    <t>子弹数量（单次发射）</t>
+  </si>
+  <si>
+    <t>发射时间</t>
+  </si>
+  <si>
+    <t>分布角度</t>
+  </si>
+  <si>
+    <t>分布类型</t>
+  </si>
+  <si>
+    <t>落点范围</t>
+  </si>
+  <si>
     <t>射击间隔（毫秒）</t>
   </si>
   <si>
@@ -154,6 +284,313 @@
   </si>
   <si>
     <t>默认buff</t>
+  </si>
+  <si>
+    <t>树妖</t>
+  </si>
+  <si>
+    <t>以自身向十字方向发射4发子弹</t>
+  </si>
+  <si>
+    <t>竹子怪</t>
+  </si>
+  <si>
+    <t>向玩家发射3颗子弹，扇形分布</t>
+  </si>
+  <si>
+    <t>河童</t>
+  </si>
+  <si>
+    <t>直线发生一支箭</t>
+  </si>
+  <si>
+    <t>丧鬼</t>
+  </si>
+  <si>
+    <t>冲撞</t>
+  </si>
+  <si>
+    <t>灯笼</t>
+  </si>
+  <si>
+    <t>晴天娃娃</t>
+  </si>
+  <si>
+    <t>草头怪</t>
+  </si>
+  <si>
+    <t>向玩家发射1颗红色圆球</t>
+  </si>
+  <si>
+    <t>招财猫</t>
+  </si>
+  <si>
+    <t>玩家位置投掷一个炸弹</t>
+  </si>
+  <si>
+    <t>丧鬼变色</t>
+  </si>
+  <si>
+    <t>树妖（变色）</t>
+  </si>
+  <si>
+    <t>以自身向米字方向发射8发子弹</t>
+  </si>
+  <si>
+    <t>河童（变色）</t>
+  </si>
+  <si>
+    <t>直线发生一支箭，会发生折射</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>草头怪（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>boss</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>向玩家120度的扇面发射大量子弹</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>怒鬼（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>boss</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）（丧鬼换头）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>蓝龙（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>boss</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）武器1</t>
+    </r>
+  </si>
+  <si>
+    <t>扇形一排子弹</t>
+  </si>
+  <si>
+    <r>
+      <t>蓝龙（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>boss</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）武器2</t>
+    </r>
+  </si>
+  <si>
+    <t>直线8颗子弹</t>
+  </si>
+  <si>
+    <r>
+      <t>蓝龙（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>boss</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）武器3</t>
+    </r>
+  </si>
+  <si>
+    <t>随机8颗子弹</t>
+  </si>
+  <si>
+    <r>
+      <t>树妖（变色）（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>boss</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）武器1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>树妖（变色）（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>boss</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）武器2</t>
+    </r>
+  </si>
+  <si>
+    <t>向玩家60度的扇面发射大量子弹</t>
+  </si>
+  <si>
+    <r>
+      <t>招财猫（变色）（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>boss</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）武器1</t>
+    </r>
+  </si>
+  <si>
+    <t>向玩家位置随机发射6颗炸弹</t>
   </si>
 </sst>
 </file>
@@ -166,10 +603,47 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -183,11 +657,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -199,69 +680,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,7 +696,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,16 +710,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,10 +725,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -339,187 +799,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,17 +1002,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,30 +1024,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,19 +1046,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,10 +1098,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -650,138 +1110,153 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1132,22 +1607,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="19.25" customWidth="1"/>
-    <col min="3" max="4" width="23.75" customWidth="1"/>
-    <col min="5" max="5" width="22.75" customWidth="1"/>
-    <col min="6" max="6" width="19.25" customWidth="1"/>
-    <col min="7" max="7" width="15.375" customWidth="1"/>
-    <col min="8" max="8" width="11.375" customWidth="1"/>
-    <col min="9" max="11" width="23.25" customWidth="1"/>
-    <col min="12" max="12" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="28.625" customWidth="1"/>
+    <col min="4" max="4" width="28.5" customWidth="1"/>
+    <col min="5" max="5" width="18.125" customWidth="1"/>
+    <col min="6" max="6" width="18.375" customWidth="1"/>
+    <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="16.25" customWidth="1"/>
+    <col min="10" max="10" width="16.875" customWidth="1"/>
+    <col min="11" max="11" width="16.625" customWidth="1"/>
+    <col min="12" max="12" width="15.875" customWidth="1"/>
+    <col min="13" max="13" width="15.375" customWidth="1"/>
+    <col min="14" max="14" width="11.375" customWidth="1"/>
+    <col min="15" max="17" width="23.25" customWidth="1"/>
+    <col min="18" max="18" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1158,7 +1640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1180,279 +1662,985 @@
       <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18">
+      <c r="B5">
+        <v>20011</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>-1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>500</v>
+      </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18">
+      <c r="B6">
+        <v>20021</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>60</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>500</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>1000</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18">
+      <c r="B7">
+        <v>20031</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>500</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>1000</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="B8">
+        <v>20041</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>500</v>
+      </c>
+      <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <v>1000</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18">
+      <c r="B9">
+        <v>20051</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>500</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
+      </c>
+      <c r="O9">
+        <v>1000</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18">
+      <c r="B10">
+        <v>20061</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>500</v>
+      </c>
+      <c r="N10">
+        <v>5</v>
+      </c>
+      <c r="O10">
+        <v>1000</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18">
+      <c r="B11">
+        <v>20071</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>500</v>
+      </c>
+      <c r="N11">
+        <v>5</v>
+      </c>
+      <c r="O11">
+        <v>1000</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18">
+      <c r="B12">
+        <v>20081</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>500</v>
+      </c>
+      <c r="N12">
+        <v>5</v>
+      </c>
+      <c r="O12">
+        <v>1000</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18">
+      <c r="B13">
+        <v>20091</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>500</v>
+      </c>
+      <c r="N13">
+        <v>5</v>
+      </c>
+      <c r="O13">
+        <v>1000</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18">
+      <c r="B14">
+        <v>20101</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>8</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>-1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>500</v>
+      </c>
+      <c r="N14">
+        <v>5</v>
+      </c>
+      <c r="O14">
+        <v>1000</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18">
+      <c r="B15">
+        <v>20111</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>-1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>500</v>
+      </c>
+      <c r="N15">
+        <v>5</v>
+      </c>
+      <c r="O15">
+        <v>1000</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18">
+      <c r="B16">
+        <v>20121</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>50</v>
+      </c>
+      <c r="I16">
+        <v>200</v>
+      </c>
+      <c r="J16">
+        <v>120</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>500</v>
+      </c>
+      <c r="N16">
+        <v>5</v>
+      </c>
+      <c r="O16">
+        <v>1000</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18">
+      <c r="B17">
+        <v>20131</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>500</v>
+      </c>
+      <c r="N17">
+        <v>5</v>
+      </c>
+      <c r="O17">
+        <v>1000</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18">
+      <c r="B18" s="4">
+        <v>20141</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>8</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>90</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>500</v>
+      </c>
+      <c r="N18">
+        <v>5</v>
+      </c>
+      <c r="O18">
+        <v>1000</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18">
+      <c r="B19" s="4">
+        <v>20142</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>8</v>
+      </c>
+      <c r="I19">
+        <v>100</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>500</v>
+      </c>
+      <c r="N19">
+        <v>5</v>
+      </c>
+      <c r="O19">
+        <v>1000</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18">
+      <c r="B20" s="4">
+        <v>20143</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>8</v>
+      </c>
+      <c r="I20">
+        <v>50</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>500</v>
+      </c>
+      <c r="N20">
+        <v>5</v>
+      </c>
+      <c r="O20">
+        <v>1000</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18">
+      <c r="B21" s="4">
+        <v>20151</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>8</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>-1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>500</v>
+      </c>
+      <c r="N21">
+        <v>5</v>
+      </c>
+      <c r="O21">
+        <v>1000</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18">
+      <c r="B22" s="4">
+        <v>20152</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
         <v>20</v>
       </c>
-      <c r="H4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" t="s">
-        <v>25</v>
+      <c r="I22">
+        <v>50</v>
+      </c>
+      <c r="J22">
+        <v>60</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>500</v>
+      </c>
+      <c r="N22">
+        <v>5</v>
+      </c>
+      <c r="O22">
+        <v>1000</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
-      <c r="B5">
-        <v>2001</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
+    <row r="23" spans="2:18">
+      <c r="B23" s="5">
+        <v>20161</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>6</v>
+      </c>
+      <c r="I23">
+        <v>50</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>20</v>
+      </c>
+      <c r="M23">
         <v>500</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12">
-      <c r="B6">
-        <v>2002</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>500</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
+      <c r="N23">
+        <v>5</v>
+      </c>
+      <c r="O23">
         <v>1000</v>
       </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12">
-      <c r="B7">
-        <v>2003</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>500</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7">
-        <v>1000</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12">
-      <c r="B8">
-        <v>2004</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>500</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="I8">
-        <v>1000</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12">
-      <c r="B9">
-        <v>2005</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>500</v>
-      </c>
-      <c r="H9">
-        <v>4</v>
-      </c>
-      <c r="I9">
-        <v>1000</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12">
-      <c r="B10">
-        <v>2006</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>500</v>
-      </c>
-      <c r="H10">
-        <v>5</v>
-      </c>
-      <c r="I10">
-        <v>1000</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12">
-      <c r="B11">
-        <v>2007</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>500</v>
-      </c>
-      <c r="H11">
-        <v>6</v>
-      </c>
-      <c r="I11">
-        <v>1000</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12">
-      <c r="B12">
-        <v>2008</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>500</v>
-      </c>
-      <c r="H12">
-        <v>7</v>
-      </c>
-      <c r="I12">
-        <v>1000</v>
-      </c>
-      <c r="L12">
+      <c r="R23">
         <v>0</v>
       </c>
     </row>
